--- a/doors-detector/results/house13_experimentk_CriterionType.MIN_0.75.xlsx
+++ b/doors-detector/results/house13_experimentk_CriterionType.MIN_0.75.xlsx
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6667974225330311</v>
+        <v>0.6679965381749099</v>
       </c>
       <c r="F5" t="n">
         <v>620</v>
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6257739435882876</v>
+        <v>0.6292299729613404</v>
       </c>
       <c r="F6" t="n">
         <v>83</v>
       </c>
       <c r="G6" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H6" t="n">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
@@ -655,16 +655,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.5720681845675597</v>
+        <v>0.5759278934086843</v>
       </c>
       <c r="F7" t="n">
         <v>69</v>
       </c>
       <c r="G7" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H7" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.7212097759607232</v>
+        <v>0.6963367983619871</v>
       </c>
       <c r="F8" t="n">
         <v>620</v>
       </c>
       <c r="G8" t="n">
-        <v>499</v>
+        <v>488</v>
       </c>
       <c r="H8" t="n">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.6719245762103362</v>
+        <v>0.6517766114858755</v>
       </c>
       <c r="F9" t="n">
         <v>83</v>
       </c>
       <c r="G9" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H9" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.5724818259710998</v>
+        <v>0.5978577988584575</v>
       </c>
       <c r="F10" t="n">
         <v>69</v>
       </c>
       <c r="G10" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H10" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.6943425691785909</v>
+        <v>0.7151013768173032</v>
       </c>
       <c r="F11" t="n">
         <v>620</v>
       </c>
       <c r="G11" t="n">
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="H11" t="n">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.7000436237101699</v>
+        <v>0.661768078746565</v>
       </c>
       <c r="F12" t="n">
         <v>83</v>
       </c>
       <c r="G12" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H12" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.5991038973966101</v>
+        <v>0.6289323542219397</v>
       </c>
       <c r="F13" t="n">
         <v>69</v>
       </c>
       <c r="G13" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H13" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.6998058400885288</v>
+        <v>0.7390231607797949</v>
       </c>
       <c r="F14" t="n">
         <v>620</v>
       </c>
       <c r="G14" t="n">
-        <v>491</v>
+        <v>505</v>
       </c>
       <c r="H14" t="n">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.7002433625548106</v>
+        <v>0.6779219703282479</v>
       </c>
       <c r="F15" t="n">
         <v>83</v>
       </c>
       <c r="G15" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H15" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.6727803371479697</v>
+        <v>0.6739944696605401</v>
       </c>
       <c r="F16" t="n">
         <v>69</v>
       </c>
       <c r="G16" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H16" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7429025315833446</v>
+        <v>0.7438882681810882</v>
       </c>
       <c r="F17" t="n">
         <v>620</v>
       </c>
       <c r="G17" t="n">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="H17" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.727431377499878</v>
+        <v>0.7077688919236749</v>
       </c>
       <c r="F18" t="n">
         <v>83</v>
       </c>
       <c r="G18" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H18" t="n">
-        <v>72</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
@@ -1039,16 +1039,16 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.7048720650535363</v>
+        <v>0.6502455797761221</v>
       </c>
       <c r="F19" t="n">
         <v>69</v>
       </c>
       <c r="G19" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H19" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -1071,16 +1071,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.7255778705492231</v>
+        <v>0.7475373592429246</v>
       </c>
       <c r="F20" t="n">
         <v>620</v>
       </c>
       <c r="G20" t="n">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="H20" t="n">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21">
@@ -1103,7 +1103,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.6993605816633381</v>
+        <v>0.717342305928332</v>
       </c>
       <c r="F21" t="n">
         <v>83</v>
@@ -1112,7 +1112,7 @@
         <v>70</v>
       </c>
       <c r="H21" t="n">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -1135,16 +1135,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.6452794094616404</v>
+        <v>0.629549845276826</v>
       </c>
       <c r="F22" t="n">
         <v>69</v>
       </c>
       <c r="G22" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H22" t="n">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23">
@@ -1167,7 +1167,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.7492683457829523</v>
+        <v>0.7557345097700431</v>
       </c>
       <c r="F23" t="n">
         <v>620</v>
@@ -1199,16 +1199,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.7168193430354707</v>
+        <v>0.7270723858836831</v>
       </c>
       <c r="F24" t="n">
         <v>83</v>
       </c>
       <c r="G24" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H24" t="n">
-        <v>96</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
@@ -1231,16 +1231,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.6975084368372647</v>
+        <v>0.720825980922489</v>
       </c>
       <c r="F25" t="n">
         <v>69</v>
       </c>
       <c r="G25" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H25" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
